--- a/results/logistic/dilemma/confidence/0.1/sum_scores.xlsx
+++ b/results/logistic/dilemma/confidence/0.1/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="219">
   <si>
     <t>negative</t>
   </si>
@@ -52,634 +52,625 @@
     <t>shit</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>news</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>not</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
   <si>
     <t>ho</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>drugs</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>the</t>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>ya</t>
   </si>
   <si>
     <t>we</t>
   </si>
   <si>
+    <t>know</t>
+  </si>
+  <si>
     <t>it</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
+    <t>my</t>
   </si>
   <si>
     <t>truth</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>learned</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>shows</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
     <t>times</t>
   </si>
   <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>blowing</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>generation</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>consequences</t>
-  </si>
-  <si>
-    <t>ve</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>inspiring</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>industries</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>decade</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>shook</t>
-  </si>
-  <si>
-    <t>parallel</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>–</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>revealed</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>brain</t>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>wonder</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>their</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>thing</t>
+    <t>that</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>pursuing</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>democracy</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>technology</t>
+    <t>d</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
   <si>
     <t>dilemma</t>
   </si>
   <si>
-    <t>live</t>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>critics</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>watched</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>discussion</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>wo</t>
+    <t>wondered</t>
   </si>
   <si>
     <t>polar</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>feed</t>
-  </si>
-  <si>
-    <t>posting</t>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>such</t>
   </si>
   <si>
     <t>latest</t>
   </si>
   <si>
-    <t>aware</t>
+    <t>figure</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>epic</t>
+    <t>then</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1106,13 +1097,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1657458563535912</v>
+        <v>0.1784172661870504</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1124,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K3">
-        <v>0.1691176470588235</v>
+        <v>0.1752136752136752</v>
       </c>
       <c r="L3">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M3">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1148,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1156,13 +1147,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.08977900552486189</v>
+        <v>0.09064748201438849</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1174,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K4">
-        <v>0.1147058823529412</v>
+        <v>0.113960113960114</v>
       </c>
       <c r="L4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1198,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1206,13 +1197,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.04281767955801105</v>
+        <v>0.0460431654676259</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1224,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K5">
-        <v>0.06617647058823529</v>
+        <v>0.06552706552706553</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1248,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1256,13 +1247,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03729281767955801</v>
+        <v>0.03741007194244604</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1274,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K6">
-        <v>0.06176470588235294</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="L6">
         <v>42</v>
@@ -1298,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1306,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03314917127071823</v>
+        <v>0.03453237410071942</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -1327,10 +1318,10 @@
         <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K7">
-        <v>0.06029411764705882</v>
+        <v>0.0584045584045584</v>
       </c>
       <c r="L7">
         <v>41</v>
@@ -1348,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1356,13 +1347,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.02900552486187845</v>
+        <v>0.03165467625899281</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1374,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K8">
-        <v>0.03970588235294117</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1398,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1406,13 +1397,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02900552486187845</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1424,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K9">
-        <v>0.03529411764705882</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="L9">
         <v>24</v>
@@ -1448,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1456,13 +1447,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02624309392265193</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1474,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K10">
-        <v>0.03088235294117647</v>
+        <v>0.03276353276353276</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1498,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1506,13 +1497,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02486187845303867</v>
+        <v>0.02733812949640288</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1524,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K11">
-        <v>0.02941176470588235</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1548,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1556,13 +1547,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02071823204419889</v>
+        <v>0.02589928057553957</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1574,13 +1565,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K12">
-        <v>0.02647058823529412</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="L12">
         <v>18</v>
@@ -1606,13 +1597,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01933701657458563</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1624,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K13">
-        <v>0.025</v>
+        <v>0.02279202279202279</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1648,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1656,37 +1647,37 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01795580110497237</v>
+        <v>0.01870503597122302</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2772</v>
+        <v>117</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K14">
-        <v>0.01764705882352941</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1698,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1706,7 +1697,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01795580110497237</v>
+        <v>0.01870503597122302</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -1724,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="L15">
         <v>13</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15">
-        <v>0.0161764705882353</v>
-      </c>
-      <c r="L15">
-        <v>11</v>
-      </c>
       <c r="M15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1748,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1756,7 +1747,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01657458563535912</v>
+        <v>0.01726618705035971</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -1777,16 +1768,16 @@
         <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K16">
-        <v>0.0161764705882353</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1798,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1806,37 +1797,37 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01519337016574586</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>11</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
+        <v>2777</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17">
+        <v>0.01424501424501425</v>
+      </c>
+      <c r="L17">
         <v>10</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17">
-        <v>0.01323529411764706</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
       <c r="M17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1848,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1856,13 +1847,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01519337016574586</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1874,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K18">
-        <v>0.01323529411764706</v>
+        <v>0.01424501424501425</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1898,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1906,13 +1897,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01519337016574586</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1924,13 +1915,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K19">
-        <v>0.01323529411764706</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="L19">
         <v>9</v>
@@ -1948,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1956,7 +1947,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0138121546961326</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -1977,10 +1968,10 @@
         <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K20">
-        <v>0.01176470588235294</v>
+        <v>0.0113960113960114</v>
       </c>
       <c r="L20">
         <v>8</v>
@@ -1998,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2006,13 +1997,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0138121546961326</v>
+        <v>0.01294964028776978</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2024,19 +2015,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K21">
-        <v>0.01029411764705882</v>
+        <v>0.0113960113960114</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2048,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2056,7 +2047,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01243093922651934</v>
+        <v>0.01294964028776978</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -2074,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="K22">
-        <v>0.008823529411764706</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="L22">
         <v>6</v>
@@ -2098,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2106,13 +2097,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01243093922651934</v>
+        <v>0.01151079136690648</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2124,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K23">
-        <v>0.008823529411764706</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="L23">
         <v>6</v>
@@ -2148,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2156,13 +2147,13 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01243093922651934</v>
+        <v>0.01151079136690648</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2174,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K24">
-        <v>0.007352941176470588</v>
+        <v>0.007122507122507123</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2198,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2206,7 +2197,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01104972375690608</v>
+        <v>0.01151079136690648</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -2224,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="K25">
-        <v>0.007352941176470588</v>
+        <v>0.007122507122507123</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2248,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2256,7 +2247,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01104972375690608</v>
+        <v>0.01151079136690648</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -2277,28 +2268,28 @@
         <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="K26">
-        <v>0.005882352941176471</v>
+        <v>0.005698005698005698</v>
       </c>
       <c r="L26">
         <v>4</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N26">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>0.5700000000000001</v>
+        <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>955</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2306,13 +2297,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.009668508287292817</v>
+        <v>0.01151079136690648</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2324,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="K27">
-        <v>0.005882352941176471</v>
+        <v>0.005698005698005698</v>
       </c>
       <c r="L27">
         <v>4</v>
@@ -2348,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>111</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2356,7 +2347,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.009668508287292817</v>
+        <v>0.01007194244604316</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -2374,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K28">
-        <v>0.005882352941176471</v>
+        <v>0.005698005698005698</v>
       </c>
       <c r="L28">
         <v>4</v>
@@ -2398,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2406,13 +2397,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.009668508287292817</v>
+        <v>0.008633093525179856</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2424,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K29">
-        <v>0.005882352941176471</v>
+        <v>0.005698005698005698</v>
       </c>
       <c r="L29">
         <v>4</v>
@@ -2448,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2456,7 +2447,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.008287292817679558</v>
+        <v>0.008633093525179856</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -2474,19 +2465,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K30">
-        <v>0.005882352941176471</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2498,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2506,13 +2497,13 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.008287292817679558</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2524,31 +2515,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="K31">
-        <v>0.005882352941176471</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>874</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2556,13 +2547,13 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.008287292817679558</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2577,16 +2568,16 @@
         <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K32">
-        <v>0.005882352941176471</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2598,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>381</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2606,13 +2597,13 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.008287292817679558</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2624,31 +2615,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="K33">
-        <v>0.004411764705882353</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>875</v>
+        <v>958</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2656,13 +2647,13 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.006906077348066298</v>
+        <v>0.005755395683453238</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2674,13 +2665,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K34">
-        <v>0.004411764705882353</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L34">
         <v>3</v>
@@ -2698,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2706,13 +2697,13 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.006906077348066298</v>
+        <v>0.005755395683453238</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2724,31 +2715,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="K35">
-        <v>0.004411764705882353</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L35">
         <v>3</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>0.1899999999999999</v>
+        <v>1</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2772</v>
+        <v>709</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2756,13 +2747,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006906077348066298</v>
+        <v>0.005755395683453238</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2774,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K36">
-        <v>0.004411764705882353</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L36">
         <v>3</v>
@@ -2798,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>709</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2806,13 +2797,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.006906077348066298</v>
+        <v>0.005755395683453238</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2824,31 +2815,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.004411764705882353</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L37">
         <v>3</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2856,13 +2847,13 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006906077348066298</v>
+        <v>0.005755395683453238</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2877,10 +2868,10 @@
         <v>6</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K38">
-        <v>0.004411764705882353</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L38">
         <v>3</v>
@@ -2898,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>949</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2906,7 +2897,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.005524861878453038</v>
+        <v>0.005755395683453238</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -2924,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>446</v>
+        <v>16</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K39">
-        <v>0.004411764705882353</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L39">
         <v>3</v>
@@ -2948,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2956,7 +2947,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.005524861878453038</v>
+        <v>0.005755395683453238</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -2974,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>604</v>
+        <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K40">
-        <v>0.004411764705882353</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L40">
         <v>3</v>
@@ -2998,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3006,7 +2997,7 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.005524861878453038</v>
+        <v>0.005755395683453238</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -3024,31 +3015,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K41">
-        <v>0.002941176470588235</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41">
         <v>3</v>
       </c>
       <c r="N41">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>342</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3056,13 +3047,13 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.005524861878453038</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3074,19 +3065,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>31</v>
+        <v>3925</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K42">
-        <v>0.002941176470588235</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3098,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3106,13 +3097,13 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005524861878453038</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3124,13 +3115,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>16</v>
+        <v>447</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K43">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -3148,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3156,49 +3147,49 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.005524861878453038</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <v>4</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>8</v>
+        <v>295</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="K44">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L44">
         <v>2</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1042</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3206,13 +3197,13 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.005524861878453038</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3227,10 +3218,10 @@
         <v>10</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="K45">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -3248,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3256,31 +3247,31 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.004143646408839779</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>3924</v>
+        <v>103</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K46">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L46">
         <v>2</v>
@@ -3298,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>71</v>
+        <v>731</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3306,7 +3297,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.004143646408839779</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -3324,31 +3315,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>368</v>
+        <v>16</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="K47">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L47">
         <v>2</v>
       </c>
       <c r="M47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>777</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3356,31 +3347,31 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.004143646408839779</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0.5700000000000001</v>
+        <v>0</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>955</v>
+        <v>9</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K48">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -3398,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3406,7 +3397,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.004143646408839779</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -3424,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K49">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -3448,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3456,7 +3447,7 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.004143646408839779</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -3474,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K50">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -3498,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3506,7 +3497,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004143646408839779</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -3524,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K51">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L51">
         <v>2</v>
@@ -3548,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>5</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3556,7 +3547,7 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.004143646408839779</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3574,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K52">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -3598,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3606,7 +3597,7 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.004143646408839779</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -3627,10 +3618,10 @@
         <v>16</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K53">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -3648,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3656,31 +3647,31 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.002762430939226519</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>777</v>
+        <v>9</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K54">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L54">
         <v>2</v>
@@ -3698,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>313</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3706,7 +3697,7 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.002762430939226519</v>
+        <v>0.002877697841726619</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -3724,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>297</v>
+        <v>779</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K55">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -3748,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3756,31 +3747,31 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.002762430939226519</v>
+        <v>0.002877697841726619</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>45</v>
+        <v>605</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K56">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L56">
         <v>2</v>
@@ -3798,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3806,7 +3797,7 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.002762430939226519</v>
+        <v>0.002877697841726619</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -3824,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>61</v>
+        <v>954</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K57">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -3848,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3856,7 +3847,7 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.002762430939226519</v>
+        <v>0.002877697841726619</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -3874,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K58">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L58">
         <v>2</v>
@@ -3898,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3906,7 +3897,7 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.002762430939226519</v>
+        <v>0.002877697841726619</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3924,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K59">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L59">
         <v>2</v>
@@ -3948,15 +3939,15 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>52</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>0.002762430939226519</v>
+        <v>0.002877697841726619</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -3974,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K60">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -3998,39 +3989,39 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002762430939226519</v>
+        <v>0.002877697841726619</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>1042</v>
+        <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K61">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -4048,21 +4039,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002762430939226519</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4074,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K62">
-        <v>0.002941176470588235</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="L62">
         <v>2</v>
@@ -4098,139 +4089,139 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002762430939226519</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>370</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K63">
+        <v>0.002849002849002849</v>
+      </c>
+      <c r="L63">
         <v>2</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>23</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K63">
-        <v>0.001470588235294118</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
       </c>
       <c r="M63">
         <v>2</v>
       </c>
       <c r="N63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>662</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002762430939226519</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>114</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K64">
+        <v>0.002849002849002849</v>
+      </c>
+      <c r="L64">
         <v>2</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>4</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K64">
-        <v>0.001470588235294118</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
       </c>
       <c r="M64">
         <v>2</v>
       </c>
       <c r="N64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>731</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002762430939226519</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>9</v>
+        <v>958</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K65">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4248,21 +4239,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>368</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002762430939226519</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4274,13 +4265,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K66">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -4298,21 +4289,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>5</v>
+        <v>663</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002762430939226519</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4324,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K67">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -4348,21 +4339,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>4</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002762430939226519</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4374,45 +4365,45 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>9</v>
+        <v>448</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="K68">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002762430939226519</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4424,45 +4415,45 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="K69">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L69">
         <v>1</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>3924</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002762430939226519</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4474,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K70">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4498,71 +4489,71 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>4</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002762430939226519</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>70</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K71">
+        <v>0.001424501424501425</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
         <v>2</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>20</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K71">
-        <v>0.001470588235294118</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>1</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002762430939226519</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4574,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K72">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4598,15 +4589,15 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4624,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K73">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4648,15 +4639,15 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>45</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4674,13 +4665,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K74">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4698,15 +4689,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4724,13 +4715,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>265</v>
+        <v>87</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K75">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4748,39 +4739,39 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>1100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>954</v>
+        <v>6</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K76">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4798,15 +4789,15 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>197</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4824,39 +4815,39 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>8</v>
+        <v>213</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="K77">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>1145</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4874,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K78">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4898,15 +4889,15 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4924,63 +4915,63 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="K79">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>13</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>25</v>
+        <v>1143</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K80">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -4998,15 +4989,15 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>8</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -5024,13 +5015,13 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K81">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -5048,15 +5039,15 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -5074,39 +5065,39 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="K82">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N82">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O82">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>954</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5124,13 +5115,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K83">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -5148,39 +5139,39 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>277</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>731</v>
+        <v>1142</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K84">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -5198,15 +5189,15 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5224,13 +5215,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K85">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -5248,15 +5239,15 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>287</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5274,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K86">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5298,15 +5289,15 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>12</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5324,13 +5315,13 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K87">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -5348,39 +5339,39 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>43</v>
+        <v>874</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K88">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5403,10 +5394,10 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5424,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K89">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5453,10 +5444,10 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5474,13 +5465,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K90">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5498,39 +5489,39 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>1145</v>
+        <v>5</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K91">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -5548,15 +5539,15 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5574,13 +5565,13 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K92">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -5598,15 +5589,15 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5624,13 +5615,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K93">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -5648,65 +5639,65 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>282</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>0.6699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>342</v>
+        <v>198</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="K94">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>630</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5724,13 +5715,13 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>296</v>
+        <v>136</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K95">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -5748,15 +5739,15 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5774,13 +5765,13 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K96">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -5798,15 +5789,15 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5824,13 +5815,13 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K97">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -5848,15 +5839,15 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5874,13 +5865,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K98">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -5898,15 +5889,15 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5924,13 +5915,13 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K99">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -5948,15 +5939,15 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5974,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K100">
-        <v>0.001470588235294118</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -5998,15 +5989,15 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6024,15 +6015,39 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>136</v>
+        <v>21</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K101">
+        <v>0.001424501424501425</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6050,15 +6065,39 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K102">
+        <v>0.001424501424501425</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -6076,15 +6115,15 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6102,15 +6141,15 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6128,15 +6167,15 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -6154,15 +6193,15 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6180,15 +6219,15 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6206,15 +6245,15 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -6232,15 +6271,15 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -6258,15 +6297,15 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6284,15 +6323,15 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6310,15 +6349,15 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -6336,15 +6375,15 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6362,15 +6401,15 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6388,15 +6427,15 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6414,15 +6453,15 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6440,15 +6479,15 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118">
-        <v>0.00138121546961326</v>
+        <v>0.001438848920863309</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -6466,241 +6505,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B119">
-        <v>0.00138121546961326</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120">
-        <v>0.00138121546961326</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B121">
-        <v>0.00138121546961326</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B122">
-        <v>0.00138121546961326</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B123">
-        <v>0.00138121546961326</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B124">
-        <v>0.00138121546961326</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125">
-        <v>0.00138121546961326</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126">
-        <v>0.00138121546961326</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126">
-        <v>0.5</v>
-      </c>
-      <c r="F126">
-        <v>0.5</v>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127">
-        <v>0.00138121546961326</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
